--- a/test3.xlsx
+++ b/test3.xlsx
@@ -13,42 +13,463 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>busid</t>
-  </si>
-  <si>
-    <t>dots</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 05:00:00'), Timestamp('1900-01-01 05:20:27'), True), (Timestamp('1900-01-01 05:30:00'), Timestamp('1900-01-01 05:50:27'), False), (Timestamp('1900-01-01 05:55:00'), Timestamp('1900-01-01 06:15:27'), True), (Timestamp('1900-01-01 07:00:00'), Timestamp('1900-01-01 07:20:27'), False), (Timestamp('1900-01-01 07:25:00'), Timestamp('1900-01-01 07:45:27'), True), (Timestamp('1900-01-01 07:50:00'), Timestamp('1900-01-01 08:10:27'), False), (Timestamp('1900-01-01 08:15:00'), Timestamp('1900-01-01 08:35:27'), True), (Timestamp('1900-01-01 08:40:00'), Timestamp('1900-01-01 09:00:27'), False), (Timestamp('1900-01-01 09:05:00'), Timestamp('1900-01-01 09:25:27'), True), (Timestamp('1900-01-01 09:30:00'), Timestamp('1900-01-01 09:50:27'), False), (Timestamp('1900-01-01 09:55:00'), Timestamp('1900-01-01 10:15:27'), True), (Timestamp('1900-01-01 10:20:00'), Timestamp('1900-01-01 10:40:27'), False), (Timestamp('1900-01-01 10:45:00'), Timestamp('1900-01-01 11:05:27'), True), (Timestamp('1900-01-01 11:10:00'), Timestamp('1900-01-01 11:30:27'), False), (Timestamp('1900-01-01 11:35:00'), Timestamp('1900-01-01 11:55:27'), True), (Timestamp('1900-01-01 12:00:00'), Timestamp('1900-01-01 12:20:27'), False), (Timestamp('1900-01-01 12:25:00'), Timestamp('1900-01-01 12:45:27'), True), (Timestamp('1900-01-01 12:50:00'), Timestamp('1900-01-01 13:10:27'), False), (Timestamp('1900-01-01 13:15:00'), Timestamp('1900-01-01 13:35:27'), True), (Timestamp('1900-01-01 13:40:00'), Timestamp('1900-01-01 14:00:27'), False), (Timestamp('1900-01-01 14:05:00'), Timestamp('1900-01-01 14:25:27'), True), (Timestamp('1900-01-01 14:30:00'), Timestamp('1900-01-01 14:50:27'), False), (Timestamp('1900-01-01 14:55:00'), Timestamp('1900-01-01 15:15:27'), True), (Timestamp('1900-01-01 15:20:00'), Timestamp('1900-01-01 15:40:27'), False), (Timestamp('1900-01-01 15:45:00'), Timestamp('1900-01-01 16:05:27'), True), (Timestamp('1900-01-01 16:10:00'), Timestamp('1900-01-01 16:30:27'), False), (Timestamp('1900-01-01 16:35:00'), Timestamp('1900-01-01 16:55:27'), True), (Timestamp('1900-01-01 17:05:00'), Timestamp('1900-01-01 17:25:27'), False), (Timestamp('1900-01-01 17:35:00'), Timestamp('1900-01-01 17:55:27'), True), (Timestamp('1900-01-01 18:30:00'), Timestamp('1900-01-01 18:50:27'), False), (Timestamp('1900-01-01 18:55:00'), Timestamp('1900-01-01 19:15:27'), True), (Timestamp('1900-01-01 19:20:00'), Timestamp('1900-01-01 19:40:27'), False), (Timestamp('1900-01-01 19:45:00'), Timestamp('1900-01-01 20:05:27'), True), (Timestamp('1900-01-01 20:10:00'), Timestamp('1900-01-01 20:30:27'), False), (Timestamp('1900-01-01 20:35:00'), Timestamp('1900-01-01 20:55:27'), True), (Timestamp('1900-01-01 21:00:00'), Timestamp('1900-01-01 21:20:27'), False), (Timestamp('1900-01-01 21:30:00'), Timestamp('1900-01-01 21:50:27'), True), (Timestamp('1900-01-01 21:55:00'), Timestamp('1900-01-01 22:15:27'), False), (Timestamp('1900-01-01 22:20:00'), Timestamp('1900-01-01 22:40:27'), True), (Timestamp('1900-01-01 22:45:00'), Timestamp('1900-01-01 23:05:27'), False), (Timestamp('1900-01-01 23:10:00'), Timestamp('1900-01-01 23:30:27'), True), (Timestamp('1900-01-01 23:35:00'), Timestamp('1900-01-01 23:55:27'), False)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 05:25:00'), Timestamp('1900-01-01 05:45:27'), True), (Timestamp('1900-01-01 05:55:00'), Timestamp('1900-01-01 06:15:27'), False), (Timestamp('1900-01-01 07:00:00'), Timestamp('1900-01-01 07:20:27'), True), (Timestamp('1900-01-01 07:25:00'), Timestamp('1900-01-01 07:45:27'), False), (Timestamp('1900-01-01 07:50:00'), Timestamp('1900-01-01 08:10:27'), True), (Timestamp('1900-01-01 08:15:00'), Timestamp('1900-01-01 08:35:27'), False), (Timestamp('1900-01-01 08:40:00'), Timestamp('1900-01-01 09:00:27'), True), (Timestamp('1900-01-01 09:05:00'), Timestamp('1900-01-01 09:25:27'), False), (Timestamp('1900-01-01 09:30:00'), Timestamp('1900-01-01 09:50:27'), True), (Timestamp('1900-01-01 09:55:00'), Timestamp('1900-01-01 10:15:27'), False), (Timestamp('1900-01-01 10:20:00'), Timestamp('1900-01-01 10:40:27'), True), (Timestamp('1900-01-01 10:45:00'), Timestamp('1900-01-01 11:05:27'), False), (Timestamp('1900-01-01 11:10:00'), Timestamp('1900-01-01 11:30:27'), True), (Timestamp('1900-01-01 11:35:00'), Timestamp('1900-01-01 11:55:27'), False), (Timestamp('1900-01-01 12:00:00'), Timestamp('1900-01-01 12:20:27'), True), (Timestamp('1900-01-01 12:25:00'), Timestamp('1900-01-01 12:45:27'), False), (Timestamp('1900-01-01 12:50:00'), Timestamp('1900-01-01 13:10:27'), True), (Timestamp('1900-01-01 13:15:00'), Timestamp('1900-01-01 13:35:27'), False), (Timestamp('1900-01-01 13:40:00'), Timestamp('1900-01-01 14:00:27'), True), (Timestamp('1900-01-01 14:05:00'), Timestamp('1900-01-01 14:25:27'), False), (Timestamp('1900-01-01 14:30:00'), Timestamp('1900-01-01 14:50:27'), True), (Timestamp('1900-01-01 14:55:00'), Timestamp('1900-01-01 15:15:27'), False), (Timestamp('1900-01-01 15:20:00'), Timestamp('1900-01-01 15:40:27'), True), (Timestamp('1900-01-01 15:45:00'), Timestamp('1900-01-01 16:05:27'), False), (Timestamp('1900-01-01 16:10:00'), Timestamp('1900-01-01 16:30:27'), True), (Timestamp('1900-01-01 16:35:00'), Timestamp('1900-01-01 16:55:27'), False), (Timestamp('1900-01-01 17:05:00'), Timestamp('1900-01-01 17:25:27'), True), (Timestamp('1900-01-01 17:35:00'), Timestamp('1900-01-01 17:55:27'), False), (Timestamp('1900-01-01 18:30:00'), Timestamp('1900-01-01 18:50:27'), True), (Timestamp('1900-01-01 18:55:00'), Timestamp('1900-01-01 19:15:27'), False), (Timestamp('1900-01-01 19:20:00'), Timestamp('1900-01-01 19:40:27'), True), (Timestamp('1900-01-01 19:45:00'), Timestamp('1900-01-01 20:05:27'), False), (Timestamp('1900-01-01 20:10:00'), Timestamp('1900-01-01 20:30:27'), True), (Timestamp('1900-01-01 20:35:00'), Timestamp('1900-01-01 20:55:27'), False), (Timestamp('1900-01-01 21:05:00'), Timestamp('1900-01-01 21:25:27'), True), (Timestamp('1900-01-01 21:30:00'), Timestamp('1900-01-01 21:50:27'), False), (Timestamp('1900-01-01 21:55:00'), Timestamp('1900-01-01 22:15:27'), True), (Timestamp('1900-01-01 22:20:00'), Timestamp('1900-01-01 22:40:27'), False), (Timestamp('1900-01-01 22:45:00'), Timestamp('1900-01-01 23:05:27'), True), (Timestamp('1900-01-01 23:10:00'), Timestamp('1900-01-01 23:30:27'), False), (Timestamp('1900-01-01 23:35:00'), Timestamp('1900-01-01 23:55:27'), True)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 05:30:00'), Timestamp('1900-01-01 05:50:27'), True), (Timestamp('1900-01-01 06:00:00'), Timestamp('1900-01-01 06:20:27'), False), (Timestamp('1900-01-01 07:00:00'), Timestamp('1900-01-01 07:20:27'), True), (Timestamp('1900-01-01 07:25:00'), Timestamp('1900-01-01 07:45:27'), False), (Timestamp('1900-01-01 07:50:00'), Timestamp('1900-01-01 08:10:27'), True), (Timestamp('1900-01-01 08:15:00'), Timestamp('1900-01-01 08:35:27'), False), (Timestamp('1900-01-01 08:40:00'), Timestamp('1900-01-01 09:00:27'), True), (Timestamp('1900-01-01 09:05:00'), Timestamp('1900-01-01 09:25:27'), False), (Timestamp('1900-01-01 09:35:00'), Timestamp('1900-01-01 09:55:27'), True), (Timestamp('1900-01-01 10:00:00'), Timestamp('1900-01-01 10:20:27'), False), (Timestamp('1900-01-01 10:25:00'), Timestamp('1900-01-01 10:45:27'), True), (Timestamp('1900-01-01 10:50:00'), Timestamp('1900-01-01 11:10:27'), False), (Timestamp('1900-01-01 11:15:00'), Timestamp('1900-01-01 11:35:27'), True), (Timestamp('1900-01-01 11:40:00'), Timestamp('1900-01-01 12:00:27'), False), (Timestamp('1900-01-01 12:05:00'), Timestamp('1900-01-01 12:25:27'), True), (Timestamp('1900-01-01 12:30:00'), Timestamp('1900-01-01 12:50:27'), False), (Timestamp('1900-01-01 12:55:00'), Timestamp('1900-01-01 13:15:27'), True), (Timestamp('1900-01-01 13:20:00'), Timestamp('1900-01-01 13:40:27'), False), (Timestamp('1900-01-01 13:45:00'), Timestamp('1900-01-01 14:05:27'), True), (Timestamp('1900-01-01 14:10:00'), Timestamp('1900-01-01 14:30:27'), False), (Timestamp('1900-01-01 14:35:00'), Timestamp('1900-01-01 14:55:27'), True), (Timestamp('1900-01-01 15:00:00'), Timestamp('1900-01-01 15:20:27'), False), (Timestamp('1900-01-01 15:25:00'), Timestamp('1900-01-01 15:45:27'), True), (Timestamp('1900-01-01 15:50:00'), Timestamp('1900-01-01 16:10:27'), False), (Timestamp('1900-01-01 16:15:00'), Timestamp('1900-01-01 16:35:27'), True), (Timestamp('1900-01-01 16:40:00'), Timestamp('1900-01-01 17:00:27'), False), (Timestamp('1900-01-01 17:05:00'), Timestamp('1900-01-01 17:25:27'), True), (Timestamp('1900-01-01 17:35:00'), Timestamp('1900-01-01 17:55:27'), False), (Timestamp('1900-01-01 18:30:00'), Timestamp('1900-01-01 18:50:27'), True), (Timestamp('1900-01-01 18:55:00'), Timestamp('1900-01-01 19:15:27'), False), (Timestamp('1900-01-01 19:20:00'), Timestamp('1900-01-01 19:40:27'), True), (Timestamp('1900-01-01 19:45:00'), Timestamp('1900-01-01 20:05:27'), False), (Timestamp('1900-01-01 20:15:00'), Timestamp('1900-01-01 20:35:27'), True), (Timestamp('1900-01-01 20:40:00'), Timestamp('1900-01-01 21:00:27'), False), (Timestamp('1900-01-01 21:20:00'), Timestamp('1900-01-01 21:40:27'), True), (Timestamp('1900-01-01 21:50:00'), Timestamp('1900-01-01 22:10:27'), False), (Timestamp('1900-01-01 22:35:00'), Timestamp('1900-01-01 22:55:27'), True), (Timestamp('1900-01-01 23:05:00'), Timestamp('1900-01-01 23:25:27'), False), (Timestamp('1900-01-01 23:30:00'), Timestamp('1900-01-01 23:50:27'), True), (Timestamp('1900-01-01 01:00:00'), Timestamp('1900-01-01 01:20:27'), False)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 05:50:00'), Timestamp('1900-01-01 06:10:27'), True), (Timestamp('1900-01-01 07:00:00'), Timestamp('1900-01-01 07:20:27'), False), (Timestamp('1900-01-01 07:25:00'), Timestamp('1900-01-01 07:45:27'), True), (Timestamp('1900-01-01 07:50:00'), Timestamp('1900-01-01 08:10:27'), False), (Timestamp('1900-01-01 08:15:00'), Timestamp('1900-01-01 08:35:27'), True), (Timestamp('1900-01-01 08:40:00'), Timestamp('1900-01-01 09:00:27'), False), (Timestamp('1900-01-01 09:05:00'), Timestamp('1900-01-01 09:25:27'), True), (Timestamp('1900-01-01 09:30:00'), Timestamp('1900-01-01 09:50:27'), False), (Timestamp('1900-01-01 10:00:00'), Timestamp('1900-01-01 10:20:27'), True), (Timestamp('1900-01-01 10:25:00'), Timestamp('1900-01-01 10:45:27'), False), (Timestamp('1900-01-01 10:50:00'), Timestamp('1900-01-01 11:10:27'), True), (Timestamp('1900-01-01 11:15:00'), Timestamp('1900-01-01 11:35:27'), False), (Timestamp('1900-01-01 11:40:00'), Timestamp('1900-01-01 12:00:27'), True), (Timestamp('1900-01-01 12:05:00'), Timestamp('1900-01-01 12:25:27'), False), (Timestamp('1900-01-01 12:30:00'), Timestamp('1900-01-01 12:50:27'), True), (Timestamp('1900-01-01 12:55:00'), Timestamp('1900-01-01 13:15:27'), False), (Timestamp('1900-01-01 13:20:00'), Timestamp('1900-01-01 13:40:27'), True), (Timestamp('1900-01-01 13:45:00'), Timestamp('1900-01-01 14:05:27'), False), (Timestamp('1900-01-01 14:10:00'), Timestamp('1900-01-01 14:30:27'), True), (Timestamp('1900-01-01 14:35:00'), Timestamp('1900-01-01 14:55:27'), False), (Timestamp('1900-01-01 15:00:00'), Timestamp('1900-01-01 15:20:27'), True), (Timestamp('1900-01-01 15:25:00'), Timestamp('1900-01-01 15:45:27'), False), (Timestamp('1900-01-01 15:50:00'), Timestamp('1900-01-01 16:10:27'), True), (Timestamp('1900-01-01 16:15:00'), Timestamp('1900-01-01 16:35:27'), False), (Timestamp('1900-01-01 16:40:00'), Timestamp('1900-01-01 17:00:27'), True), (Timestamp('1900-01-01 17:05:00'), Timestamp('1900-01-01 17:25:27'), False), (Timestamp('1900-01-01 17:35:00'), Timestamp('1900-01-01 17:55:27'), True), (Timestamp('1900-01-01 18:30:00'), Timestamp('1900-01-01 18:50:27'), False), (Timestamp('1900-01-01 18:55:00'), Timestamp('1900-01-01 19:15:27'), True), (Timestamp('1900-01-01 19:20:00'), Timestamp('1900-01-01 19:40:27'), False), (Timestamp('1900-01-01 19:45:00'), Timestamp('1900-01-01 20:05:27'), True), (Timestamp('1900-01-01 20:10:00'), Timestamp('1900-01-01 20:30:27'), False), (Timestamp('1900-01-01 20:40:00'), Timestamp('1900-01-01 21:00:27'), True), (Timestamp('1900-01-01 21:05:00'), Timestamp('1900-01-01 21:25:27'), False), (Timestamp('1900-01-01 21:45:00'), Timestamp('1900-01-01 22:05:27'), True), (Timestamp('1900-01-01 22:15:00'), Timestamp('1900-01-01 22:35:27'), False), (Timestamp('1900-01-01 23:55:00'), Timestamp('1900-01-02 00:15:27'), True)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 06:00:00'), Timestamp('1900-01-01 06:20:27'), True), (Timestamp('1900-01-01 07:00:00'), Timestamp('1900-01-01 07:20:27'), False), (Timestamp('1900-01-01 07:25:00'), Timestamp('1900-01-01 07:45:27'), True), (Timestamp('1900-01-01 07:50:00'), Timestamp('1900-01-01 08:10:27'), False), (Timestamp('1900-01-01 08:15:00'), Timestamp('1900-01-01 08:35:27'), True), (Timestamp('1900-01-01 08:40:00'), Timestamp('1900-01-01 09:00:27'), False), (Timestamp('1900-01-01 09:10:00'), Timestamp('1900-01-01 09:30:27'), True), (Timestamp('1900-01-01 09:35:00'), Timestamp('1900-01-01 09:55:27'), False), (Timestamp('1900-01-01 11:00:00'), Timestamp('1900-01-01 11:20:27'), True), (Timestamp('1900-01-01 11:30:00'), Timestamp('1900-01-01 11:50:27'), False), (Timestamp('1900-01-01 12:15:00'), Timestamp('1900-01-01 12:35:27'), True), (Timestamp('1900-01-01 12:45:00'), Timestamp('1900-01-01 13:05:27'), False), (Timestamp('1900-01-01 13:30:00'), Timestamp('1900-01-01 13:50:27'), True), (Timestamp('1900-01-01 14:00:00'), Timestamp('1900-01-01 14:20:27'), False), (Timestamp('1900-01-01 14:45:00'), Timestamp('1900-01-01 15:05:27'), True), (Timestamp('1900-01-01 15:15:00'), Timestamp('1900-01-01 15:35:27'), False), (Timestamp('1900-01-01 16:00:00'), Timestamp('1900-01-01 16:20:27'), True), (Timestamp('1900-01-01 16:30:00'), Timestamp('1900-01-01 16:50:27'), False), (Timestamp('1900-01-01 17:00:00'), Timestamp('1900-01-01 17:20:27'), True), (Timestamp('1900-01-01 17:30:00'), Timestamp('1900-01-01 17:50:27'), False), (Timestamp('1900-01-01 18:30:00'), Timestamp('1900-01-01 18:50:27'), True), (Timestamp('1900-01-01 18:55:00'), Timestamp('1900-01-01 19:15:27'), False), (Timestamp('1900-01-01 19:20:00'), Timestamp('1900-01-01 19:40:27'), True), (Timestamp('1900-01-01 19:45:00'), Timestamp('1900-01-01 20:05:27'), False), (Timestamp('1900-01-01 20:30:00'), Timestamp('1900-01-01 20:50:27'), True), (Timestamp('1900-01-01 21:25:00'), Timestamp('1900-01-01 21:45:27'), False), (Timestamp('1900-01-01 22:10:00'), Timestamp('1900-01-01 22:30:27'), True), (Timestamp('1900-01-01 22:40:00'), Timestamp('1900-01-01 23:00:27'), False), (Timestamp('1900-01-01 00:30:00'), Timestamp('1900-01-01 00:50:27'), True), (Timestamp('1900-01-01 01:00:00'), Timestamp('1900-01-01 01:20:27'), False)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 06:30:00'), Timestamp('1900-01-01 06:50:27'), True), (Timestamp('1900-01-01 07:25:00'), Timestamp('1900-01-01 07:45:27'), False), (Timestamp('1900-01-01 07:50:00'), Timestamp('1900-01-01 08:10:27'), True), (Timestamp('1900-01-01 08:15:00'), Timestamp('1900-01-01 08:35:27'), False), (Timestamp('1900-01-01 08:40:00'), Timestamp('1900-01-01 09:00:27'), True), (Timestamp('1900-01-01 09:10:00'), Timestamp('1900-01-01 09:30:27'), False), (Timestamp('1900-01-01 11:25:00'), Timestamp('1900-01-01 11:45:27'), True), (Timestamp('1900-01-01 11:55:00'), Timestamp('1900-01-01 12:15:27'), False), (Timestamp('1900-01-01 12:40:00'), Timestamp('1900-01-01 13:00:27'), True), (Timestamp('1900-01-01 13:10:00'), Timestamp('1900-01-01 13:30:27'), False), (Timestamp('1900-01-01 13:55:00'), Timestamp('1900-01-01 14:15:27'), True), (Timestamp('1900-01-01 14:25:00'), Timestamp('1900-01-01 14:45:27'), False), (Timestamp('1900-01-01 15:10:00'), Timestamp('1900-01-01 15:30:27'), True), (Timestamp('1900-01-01 15:40:00'), Timestamp('1900-01-01 16:00:27'), False), (Timestamp('1900-01-01 16:25:00'), Timestamp('1900-01-01 16:45:27'), True), (Timestamp('1900-01-01 16:55:00'), Timestamp('1900-01-01 17:15:27'), False), (Timestamp('1900-01-01 17:25:00'), Timestamp('1900-01-01 17:45:27'), True), (Timestamp('1900-01-01 18:30:00'), Timestamp('1900-01-01 18:50:27'), False), (Timestamp('1900-01-01 18:55:00'), Timestamp('1900-01-01 19:15:27'), True), (Timestamp('1900-01-01 19:20:00'), Timestamp('1900-01-01 19:40:27'), False), (Timestamp('1900-01-01 19:45:00'), Timestamp('1900-01-01 20:05:27'), True), (Timestamp('1900-01-01 20:15:00'), Timestamp('1900-01-01 20:35:27'), False), (Timestamp('1900-01-01 20:55:00'), Timestamp('1900-01-01 21:15:27'), True), (Timestamp('1900-01-01 01:00:00'), Timestamp('1900-01-01 01:20:27'), False)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 07:00:00'), Timestamp('1900-01-01 07:20:27'), True), (Timestamp('1900-01-01 07:30:00'), Timestamp('1900-01-01 07:50:27'), False), (Timestamp('1900-01-01 07:55:00'), Timestamp('1900-01-01 08:15:27'), True), (Timestamp('1900-01-01 08:20:00'), Timestamp('1900-01-01 08:40:27'), False), (Timestamp('1900-01-01 08:45:00'), Timestamp('1900-01-01 09:05:27'), True), (Timestamp('1900-01-01 09:30:00'), Timestamp('1900-01-01 09:50:27'), False), (Timestamp('1900-01-01 11:50:00'), Timestamp('1900-01-01 12:10:27'), True), (Timestamp('1900-01-01 12:20:00'), Timestamp('1900-01-01 12:40:27'), False), (Timestamp('1900-01-01 13:05:00'), Timestamp('1900-01-01 13:25:27'), True), (Timestamp('1900-01-01 13:35:00'), Timestamp('1900-01-01 13:55:27'), False), (Timestamp('1900-01-01 14:20:00'), Timestamp('1900-01-01 14:40:27'), True), (Timestamp('1900-01-01 14:50:00'), Timestamp('1900-01-01 15:10:27'), False), (Timestamp('1900-01-01 15:35:00'), Timestamp('1900-01-01 15:55:27'), True), (Timestamp('1900-01-01 16:05:00'), Timestamp('1900-01-01 16:25:27'), False), (Timestamp('1900-01-01 16:50:00'), Timestamp('1900-01-01 17:10:27'), True), (Timestamp('1900-01-01 17:20:00'), Timestamp('1900-01-01 17:40:27'), False), (Timestamp('1900-01-01 19:00:00'), Timestamp('1900-01-01 19:20:27'), True), (Timestamp('1900-01-01 19:25:00'), Timestamp('1900-01-01 19:45:27'), False), (Timestamp('1900-01-01 19:50:00'), Timestamp('1900-01-01 20:10:27'), True), (Timestamp('1900-01-01 20:35:00'), Timestamp('1900-01-01 20:55:27'), False), (Timestamp('1900-01-01 00:30:00'), Timestamp('1900-01-01 00:50:27'), True), (Timestamp('1900-01-01 01:00:00'), Timestamp('1900-01-01 01:20:27'), False)]</t>
-  </si>
-  <si>
-    <t>[(Timestamp('1900-01-01 07:30:00'), Timestamp('1900-01-01 07:50:27'), True), (Timestamp('1900-01-01 07:55:00'), Timestamp('1900-01-01 08:15:27'), False), (Timestamp('1900-01-01 08:20:00'), Timestamp('1900-01-01 08:40:27'), True), (Timestamp('1900-01-01 08:45:00'), Timestamp('1900-01-01 09:05:27'), False), (Timestamp('1900-01-01 17:15:00'), Timestamp('1900-01-01 17:35:27'), True), (Timestamp('1900-01-01 19:00:00'), Timestamp('1900-01-01 19:20:27'), False), (Timestamp('1900-01-01 19:25:00'), Timestamp('1900-01-01 19:45:27'), True), (Timestamp('1900-01-01 19:50:00'), Timestamp('1900-01-01 20:10:27'), False), (Timestamp('1900-01-01 00:30:00'), Timestamp('1900-01-01 00:50:27'), True), (Timestamp('1900-01-01 01:00:00'), Timestamp('1900-01-01 01:20:27'), False)]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+  <si>
+    <t>busID</t>
+  </si>
+  <si>
+    <t>TimeStart</t>
+  </si>
+  <si>
+    <t>TimeStop</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>05:00:00</t>
+  </si>
+  <si>
+    <t>05:30:00</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
+    <t>08:10:00</t>
+  </si>
+  <si>
+    <t>08:50:00</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>19:40:00</t>
+  </si>
+  <si>
+    <t>20:10:00</t>
+  </si>
+  <si>
+    <t>20:50:00</t>
+  </si>
+  <si>
+    <t>21:20:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>23:15:00</t>
+  </si>
+  <si>
+    <t>23:40:00</t>
+  </si>
+  <si>
+    <t>05:25:00</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>07:10:00</t>
+  </si>
+  <si>
+    <t>07:50:00</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>20:05:00</t>
+  </si>
+  <si>
+    <t>21:50:00</t>
+  </si>
+  <si>
+    <t>22:40:00</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>05:45:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>10:35:00</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
+  </si>
+  <si>
+    <t>18:40:00</t>
+  </si>
+  <si>
+    <t>19:20:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>20:35:00</t>
+  </si>
+  <si>
+    <t>21:05:00</t>
+  </si>
+  <si>
+    <t>21:40:00</t>
+  </si>
+  <si>
+    <t>22:10:00</t>
+  </si>
+  <si>
+    <t>23:35:00</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>10:15:00</t>
+  </si>
+  <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>18:50:00</t>
+  </si>
+  <si>
+    <t>19:30:00</t>
+  </si>
+  <si>
+    <t>20:20:00</t>
+  </si>
+  <si>
+    <t>21:35:00</t>
+  </si>
+  <si>
+    <t>22:20:00</t>
+  </si>
+  <si>
+    <t>22:50:00</t>
+  </si>
+  <si>
+    <t>23:55:00</t>
+  </si>
+  <si>
+    <t>06:10:00</t>
+  </si>
+  <si>
+    <t>07:20:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>08:40:00</t>
+  </si>
+  <si>
+    <t>09:10:00</t>
+  </si>
+  <si>
+    <t>10:05:00</t>
+  </si>
+  <si>
+    <t>10:45:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>23:10:00</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>06:30:00</t>
+  </si>
+  <si>
+    <t>07:40:00</t>
+  </si>
+  <si>
+    <t>08:20:00</t>
+  </si>
+  <si>
+    <t>11:10:00</t>
+  </si>
+  <si>
+    <t>19:10:00</t>
+  </si>
+  <si>
+    <t>19:50:00</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>05:20:27</t>
+  </si>
+  <si>
+    <t>05:50:27</t>
+  </si>
+  <si>
+    <t>07:20:27</t>
+  </si>
+  <si>
+    <t>07:50:27</t>
+  </si>
+  <si>
+    <t>08:30:27</t>
+  </si>
+  <si>
+    <t>09:10:27</t>
+  </si>
+  <si>
+    <t>09:40:27</t>
+  </si>
+  <si>
+    <t>10:10:27</t>
+  </si>
+  <si>
+    <t>10:50:27</t>
+  </si>
+  <si>
+    <t>11:35:27</t>
+  </si>
+  <si>
+    <t>18:50:27</t>
+  </si>
+  <si>
+    <t>19:20:27</t>
+  </si>
+  <si>
+    <t>20:00:27</t>
+  </si>
+  <si>
+    <t>20:30:27</t>
+  </si>
+  <si>
+    <t>21:10:27</t>
+  </si>
+  <si>
+    <t>21:40:27</t>
+  </si>
+  <si>
+    <t>22:20:27</t>
+  </si>
+  <si>
+    <t>22:50:27</t>
+  </si>
+  <si>
+    <t>23:35:27</t>
+  </si>
+  <si>
+    <t>00:00:27</t>
+  </si>
+  <si>
+    <t>05:45:27</t>
+  </si>
+  <si>
+    <t>06:20:27</t>
+  </si>
+  <si>
+    <t>07:30:27</t>
+  </si>
+  <si>
+    <t>08:10:27</t>
+  </si>
+  <si>
+    <t>08:50:27</t>
+  </si>
+  <si>
+    <t>09:20:27</t>
+  </si>
+  <si>
+    <t>10:05:27</t>
+  </si>
+  <si>
+    <t>10:40:27</t>
+  </si>
+  <si>
+    <t>11:20:27</t>
+  </si>
+  <si>
+    <t>20:25:27</t>
+  </si>
+  <si>
+    <t>22:10:27</t>
+  </si>
+  <si>
+    <t>23:00:27</t>
+  </si>
+  <si>
+    <t>01:20:27</t>
+  </si>
+  <si>
+    <t>06:05:27</t>
+  </si>
+  <si>
+    <t>10:20:27</t>
+  </si>
+  <si>
+    <t>10:55:27</t>
+  </si>
+  <si>
+    <t>11:40:27</t>
+  </si>
+  <si>
+    <t>19:00:27</t>
+  </si>
+  <si>
+    <t>19:40:27</t>
+  </si>
+  <si>
+    <t>20:20:27</t>
+  </si>
+  <si>
+    <t>20:55:27</t>
+  </si>
+  <si>
+    <t>21:25:27</t>
+  </si>
+  <si>
+    <t>22:00:27</t>
+  </si>
+  <si>
+    <t>22:30:27</t>
+  </si>
+  <si>
+    <t>23:55:27</t>
+  </si>
+  <si>
+    <t>09:50:27</t>
+  </si>
+  <si>
+    <t>10:35:27</t>
+  </si>
+  <si>
+    <t>11:10:27</t>
+  </si>
+  <si>
+    <t>17:20:27</t>
+  </si>
+  <si>
+    <t>19:10:27</t>
+  </si>
+  <si>
+    <t>19:50:27</t>
+  </si>
+  <si>
+    <t>20:40:27</t>
+  </si>
+  <si>
+    <t>21:55:27</t>
+  </si>
+  <si>
+    <t>22:40:27</t>
+  </si>
+  <si>
+    <t>23:10:27</t>
+  </si>
+  <si>
+    <t>00:15:27</t>
+  </si>
+  <si>
+    <t>06:30:27</t>
+  </si>
+  <si>
+    <t>07:40:27</t>
+  </si>
+  <si>
+    <t>08:20:27</t>
+  </si>
+  <si>
+    <t>09:00:27</t>
+  </si>
+  <si>
+    <t>09:30:27</t>
+  </si>
+  <si>
+    <t>10:25:27</t>
+  </si>
+  <si>
+    <t>11:05:27</t>
+  </si>
+  <si>
+    <t>11:50:27</t>
+  </si>
+  <si>
+    <t>23:30:27</t>
+  </si>
+  <si>
+    <t>00:50:27</t>
+  </si>
+  <si>
+    <t>06:50:27</t>
+  </si>
+  <si>
+    <t>08:00:27</t>
+  </si>
+  <si>
+    <t>08:40:27</t>
+  </si>
+  <si>
+    <t>11:30:27</t>
+  </si>
+  <si>
+    <t>19:30:27</t>
+  </si>
+  <si>
+    <t>20:10:27</t>
+  </si>
+  <si>
+    <t>10:00:27</t>
   </si>
 </sst>
 </file>
@@ -107,11 +528,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,23 +838,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -440,84 +868,2700 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:JA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.225694444444445</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.23263888888888901</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.23611111111111099</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.23958333333333301</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.243055555555556</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.24652777777777801</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25347222222222199</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.25694444444444497</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.26388888888888901</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.26736111111111099</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.27083333333333398</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.27430555555555602</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.28472222222222299</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.28819444444444497</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.29513888888888901</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.29861111111111099</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.30208333333333398</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.30555555555555602</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.30902777777777801</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.312500000000001</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.31597222222222299</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.31944444444444497</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.32291666666666802</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.32638888888889001</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.32986111111111199</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.33680555555555702</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.34027777777777901</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.343750000000001</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.34722222222222299</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0.35069444444444597</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0.35416666666666802</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0.35763888888889001</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0.36111111111111199</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0.36458333333333398</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0.36805555555555702</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0.37152777777777901</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0.375000000000001</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0.37847222222222299</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>0.38194444444444597</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0.38541666666666802</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>0.38888888888889001</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>0.39236111111111199</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0.39583333333333498</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0.39930555555555702</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>0.40277777777777901</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>0.406250000000001</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>0.40972222222222399</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>0.41319444444444597</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>0.42013888888889001</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0.42361111111111199</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>0.42708333333333498</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>0.43055555555555702</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>0.43402777777777901</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>0.437500000000001</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>0.44097222222222399</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>0.44444444444444597</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>0.44791666666666802</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>0.45138888888889001</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>0.45486111111111299</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>0.45833333333333498</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>0.46180555555555702</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>0.46527777777777901</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>0.468750000000002</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>0.47222222222222399</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>0.47569444444444597</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>0.47916666666666802</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>0.482638888888891</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>0.48611111111111299</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>0.48958333333333498</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>0.49305555555555702</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>0.49652777777777901</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>0.500000000000002</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>0.50347222222222399</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>0.50694444444444597</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>0.51041666666666796</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>0.51388888888889095</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>0.51736111111111305</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>0.52083333333333504</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>0.52430555555555702</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>0.52777777777778001</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>0.531250000000002</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>0.53472222222222399</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>0.53819444444444597</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>0.54166666666666896</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>0.54513888888889095</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>0.54861111111111305</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>0.55208333333333504</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>0.55555555555555802</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>0.55902777777778001</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>0.562500000000002</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>0.56597222222222399</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>0.56944444444444697</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>0.57291666666666896</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>0.57638888888889095</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>0.57986111111111305</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>0.58333333333333504</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>0.58680555555555802</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>0.59027777777778001</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>0.593750000000002</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>0.59722222222222399</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>0.60069444444444697</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>0.60416666666666896</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>0.60763888888889095</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>0.61111111111111305</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>0.61458333333333603</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>0.61805555555555802</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>0.62152777777778001</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>0.625000000000002</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>0.62847222222222499</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>0.63194444444444697</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>0.63541666666666896</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>0.63888888888889095</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>0.64236111111111305</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>0.64583333333333603</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>0.64930555555555802</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>0.65277777777778001</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>0.656250000000002</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>0.65972222222222499</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>0.66319444444444697</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>0.66666666666666896</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>0.67013888888889095</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>0.67361111111111405</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>0.67708333333333603</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>0.68055555555555802</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>0.68402777777778001</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>0.687500000000003</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>0.69097222222222499</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>0.69444444444444697</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>0.69791666666666896</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>0.70138888888889095</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>0.70486111111111405</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>0.70833333333333603</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>0.71180555555555802</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>0.71527777777778001</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>0.718750000000003</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>0.72222222222222499</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>0.72569444444444697</v>
+      </c>
+      <c r="EW2" s="2">
+        <v>0.72916666666666896</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>0.73263888888889195</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>0.73611111111111405</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>0.73958333333333603</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>0.74305555555555802</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>0.74652777777778101</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>0.750000000000003</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>0.75347222222222499</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>0.75694444444444697</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>0.76041666666666996</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>0.76388888888889195</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>0.76736111111111405</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>0.77083333333333603</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>0.77430555555555802</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>0.77777777777778101</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>0.781250000000003</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>0.78472222222222499</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>0.78819444444444797</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>0.79166666666666996</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>0.79513888888889195</v>
+      </c>
+      <c r="FQ2" s="2">
+        <v>0.79861111111111405</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>0.80208333333333603</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>0.80555555555555902</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>0.80902777777778101</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>0.812500000000003</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>0.81597222222222499</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>0.81944444444444797</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>0.82291666666666996</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>0.82638888888889195</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>0.82986111111111405</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>0.83333333333333703</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>0.83680555555555902</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>0.84027777777778101</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>0.843750000000003</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>0.84722222222222598</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>0.85069444444444797</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>0.85416666666666996</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>0.85763888888889195</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>0.86111111111111405</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>0.86458333333333703</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>0.86805555555555902</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>0.87152777777778101</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>0.875000000000003</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>0.87847222222222598</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>0.88194444444444797</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>0.88541666666666996</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>0.88888888888889195</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>0.89236111111111505</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>0.89583333333333703</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>0.89930555555555902</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>0.90277777777778101</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>0.906250000000004</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>0.90972222222222598</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>0.91319444444444797</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>0.91666666666666996</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>0.92013888888889195</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>0.92361111111111505</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>0.92708333333333703</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>0.93055555555555902</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>0.93402777777778101</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>0.937500000000004</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>0.94097222222222598</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>0.94444444444444797</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>0.94791666666666996</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>0.95138888888889295</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>0.95486111111111505</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>0.95833333333333703</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>0.96180555555555902</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>0.96527777777778201</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>0.968750000000004</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>0.97222222222222598</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>0.97569444444444797</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>0.97916666666666996</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>0.98263888888889295</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>0.98611111111111505</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>0.98958333333333703</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>0.99305555555555902</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>0.99652777777778201</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>1.0034722222222301</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>1.00694444444445</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>1.0104166666666701</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>1.0138888888888899</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>1.0173611111111101</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>1.0208333333333399</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>1.02430555555556</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>1.0277777777777799</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>1.03125</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>1.0347222222222301</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>1.03819444444445</v>
+      </c>
+      <c r="II2" s="2">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>1.0451388888888899</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>1.0486111111111101</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>1.0520833333333399</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>1.05555555555556</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>1.0590277777777799</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>1.0625</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>1.0659722222222301</v>
+      </c>
+      <c r="IQ2" s="2">
+        <v>1.06944444444445</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>1.0729166666666701</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>1.0763888888888899</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>1.0798611111111101</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>1.0833333333333399</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>1.08680555555556</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>1.0902777777777799</v>
+      </c>
+      <c r="IX2" s="2">
+        <v>1.09375</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>1.0972222222222301</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>1.10069444444445</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>1.1041666666666701</v>
+      </c>
+    </row>
+    <row r="3" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:261" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
